--- a/Final_version/data_5.xlsx
+++ b/Final_version/data_5.xlsx
@@ -408,7 +408,7 @@
         <v>2.041</v>
       </c>
       <c r="D2">
-        <v>1927.023</v>
+        <v>1927.021</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>0.143</v>
       </c>
       <c r="C3">
-        <v>17.308</v>
+        <v>17.309</v>
       </c>
       <c r="D3">
-        <v>2966.106</v>
+        <v>2966.112</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>20.61</v>
+        <v>20.605</v>
       </c>
       <c r="C4">
-        <v>14.697</v>
+        <v>14.698</v>
       </c>
       <c r="D4">
-        <v>3000.046</v>
+        <v>3000.028</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,10 +447,10 @@
         <v>21.67</v>
       </c>
       <c r="C5">
-        <v>0.175</v>
+        <v>0.172</v>
       </c>
       <c r="D5">
-        <v>1434.023</v>
+        <v>1431.15</v>
       </c>
     </row>
   </sheetData>
